--- a/PyCitySchools/Output/Scores By Grade.xlsx
+++ b/PyCitySchools/Output/Scores By Grade.xlsx
@@ -1,27 +1,104 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="23">
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>grade</t>
+  </si>
+  <si>
+    <t>reading_score</t>
+  </si>
+  <si>
+    <t>math_score</t>
+  </si>
+  <si>
+    <t>Pena High School</t>
+  </si>
+  <si>
+    <t>Figueroa High School</t>
+  </si>
+  <si>
+    <t>Huang High School</t>
+  </si>
+  <si>
+    <t>Shelton High School</t>
+  </si>
+  <si>
+    <t>Cabrera High School</t>
+  </si>
+  <si>
+    <t>Hernandez High School</t>
+  </si>
+  <si>
+    <t>Bailey High School</t>
+  </si>
+  <si>
+    <t>Holden High School</t>
+  </si>
+  <si>
+    <t>Wright High School</t>
+  </si>
+  <si>
+    <t>Johnson High School</t>
+  </si>
+  <si>
+    <t>Ford High School</t>
+  </si>
+  <si>
+    <t>Thomas High School</t>
+  </si>
+  <si>
+    <t>Griffin High School</t>
+  </si>
+  <si>
+    <t>Wilson High School</t>
+  </si>
+  <si>
+    <t>Rodriguez High School</t>
+  </si>
+  <si>
+    <t>10th</t>
+  </si>
+  <si>
+    <t>11th</t>
+  </si>
+  <si>
+    <t>12th</t>
+  </si>
+  <si>
+    <t>9th</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -37,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,26 +122,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -79,44 +166,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -143,15 +230,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -178,7 +264,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -190,153 +275,1032 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>83.61199999999999</v>
+      </c>
+      <c r="D2">
+        <v>83.372</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>84.3359375</v>
+      </c>
+      <c r="D3">
+        <v>84.328125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4">
+        <v>84.59116022099448</v>
+      </c>
+      <c r="D4">
+        <v>84.12154696132596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>83.80727272727273</v>
+      </c>
+      <c r="D5">
+        <v>83.62545454545455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>81.40891218872871</v>
+      </c>
+      <c r="D6">
+        <v>76.53997378768021</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7">
+        <v>80.64033850493654</v>
+      </c>
+      <c r="D7">
+        <v>76.88434414668548</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>81.38486312399355</v>
+      </c>
+      <c r="D8">
+        <v>77.15136876006441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>81.19859813084112</v>
+      </c>
+      <c r="D9">
+        <v>76.40303738317758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>81.51238591916558</v>
+      </c>
+      <c r="D10">
+        <v>75.90873533246415</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>81.41747572815534</v>
+      </c>
+      <c r="D11">
+        <v>76.44660194174757</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>80.3059829059829</v>
+      </c>
+      <c r="D12">
+        <v>77.22564102564102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>81.29028436018957</v>
+      </c>
+      <c r="D13">
+        <v>77.02725118483413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>83.44196428571429</v>
+      </c>
+      <c r="D14">
+        <v>82.91741071428571</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15">
+        <v>84.37378640776699</v>
+      </c>
+      <c r="D15">
+        <v>83.38349514563107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16">
+        <v>82.78167115902966</v>
+      </c>
+      <c r="D16">
+        <v>83.77897574123989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>84.12264150943396</v>
+      </c>
+      <c r="D17">
+        <v>83.42075471698114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18">
+        <v>84.25321888412017</v>
+      </c>
+      <c r="D18">
+        <v>83.15450643776823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>83.78838174273859</v>
+      </c>
+      <c r="D19">
+        <v>82.7655601659751</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20">
+        <v>84.28795811518324</v>
+      </c>
+      <c r="D20">
+        <v>83.27748691099477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>83.67613636363636</v>
+      </c>
+      <c r="D21">
+        <v>83.09469696969697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <v>80.66014669926651</v>
+      </c>
+      <c r="D22">
+        <v>77.33740831295843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>81.39613970588235</v>
+      </c>
+      <c r="D23">
+        <v>77.13602941176471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <v>80.85714285714286</v>
+      </c>
+      <c r="D24">
+        <v>77.18656716417911</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <v>80.86685962373372</v>
+      </c>
+      <c r="D25">
+        <v>77.43849493487699</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26">
+        <v>80.90718321226795</v>
+      </c>
+      <c r="D26">
+        <v>76.99677158999192</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>80.94564348521183</v>
+      </c>
+      <c r="D27">
+        <v>77.51558752997602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>80.91245136186771</v>
+      </c>
+      <c r="D28">
+        <v>76.49221789883268</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>81.30315500685872</v>
+      </c>
+      <c r="D29">
+        <v>77.08367626886145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>83.32456140350877</v>
+      </c>
+      <c r="D30">
+        <v>83.42982456140351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31">
+        <v>83.81553398058253</v>
+      </c>
+      <c r="D31">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32">
+        <v>84.6987951807229</v>
+      </c>
+      <c r="D32">
+        <v>82.85542168674699</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>83.67716535433071</v>
+      </c>
+      <c r="D33">
+        <v>83.78740157480316</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34">
+        <v>83.81275720164609</v>
+      </c>
+      <c r="D34">
+        <v>84.01028806584362</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>84.15632183908046</v>
+      </c>
+      <c r="D35">
+        <v>83.8367816091954</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36">
+        <v>84.07317073170732</v>
+      </c>
+      <c r="D36">
+        <v>83.6449864498645</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>83.83333333333333</v>
+      </c>
+      <c r="D37">
+        <v>83.26470588235294</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>80.77343113284434</v>
+      </c>
+      <c r="D38">
+        <v>76.69111654441728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>80.61602671118531</v>
+      </c>
+      <c r="D39">
+        <v>77.49165275459099</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40">
+        <v>81.2275641025641</v>
+      </c>
+      <c r="D40">
+        <v>76.86324786324786</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41">
+        <v>81.26071428571429</v>
+      </c>
+      <c r="D41">
+        <v>77.18785714285714</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42">
+        <v>81.26271186440678</v>
+      </c>
+      <c r="D42">
+        <v>77.67231638418079</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43">
+        <v>80.40364188163885</v>
+      </c>
+      <c r="D43">
+        <v>76.91805766312595</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>80.66233766233766</v>
+      </c>
+      <c r="D44">
+        <v>76.1799628942486</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45">
+        <v>80.63265306122449</v>
+      </c>
+      <c r="D45">
+        <v>77.36134453781513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46">
+        <v>84.25415676959619</v>
+      </c>
+      <c r="D46">
+        <v>83.08788598574822</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <v>83.58554216867469</v>
+      </c>
+      <c r="D47">
+        <v>83.49879518072289</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" t="s">
+        <v>21</v>
+      </c>
+      <c r="C48">
+        <v>83.83136094674556</v>
+      </c>
+      <c r="D48">
+        <v>83.49704142011835</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>83.72885032537961</v>
+      </c>
+      <c r="D49">
+        <v>83.59002169197397</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50">
+        <v>83.70689655172414</v>
+      </c>
+      <c r="D50">
+        <v>84.22906403940887</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>16</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51">
+        <v>84.28808864265928</v>
+      </c>
+      <c r="D51">
+        <v>83.84210526315789</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>84.01369863013699</v>
+      </c>
+      <c r="D52">
+        <v>83.35616438356165</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53">
+        <v>83.36919315403424</v>
+      </c>
+      <c r="D53">
+        <v>82.0440097799511</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54">
+        <v>84.02145214521452</v>
+      </c>
+      <c r="D54">
+        <v>83.72442244224422</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C55">
+        <v>83.76460767946578</v>
+      </c>
+      <c r="D55">
+        <v>83.19532554257096</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>84.31767337807607</v>
+      </c>
+      <c r="D56">
+        <v>83.03579418344519</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>17</v>
+      </c>
+      <c r="B57" t="s">
+        <v>22</v>
+      </c>
+      <c r="C57">
+        <v>83.93977812995246</v>
+      </c>
+      <c r="D57">
+        <v>83.08557844690966</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>18</v>
+      </c>
+      <c r="B58" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>80.62980769230769</v>
+      </c>
+      <c r="D58">
+        <v>76.6125</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B59" t="s">
+        <v>20</v>
+      </c>
+      <c r="C59">
+        <v>80.86481113320079</v>
+      </c>
+      <c r="D59">
+        <v>76.39562624254474</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60">
+        <v>80.3764258555133</v>
+      </c>
+      <c r="D60">
+        <v>77.69074778200253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" t="s">
+        <v>22</v>
+      </c>
+      <c r="C61">
+        <v>80.99312714776632</v>
+      </c>
+      <c r="D61">
+        <v>76.85996563573883</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>